--- a/pages/errorfilesKitas/Fehler Kind Mehrfachnennung 2.xlsx
+++ b/pages/errorfilesKitas/Fehler Kind Mehrfachnennung 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Arbeit mit Stefan\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038C67F0-5736-4CAF-86E2-98C243161A1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8C72F7-ACD8-432D-AF91-9554CBA62926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{A8CF11FE-F45B-48BF-B087-F67E07F60890}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="404">
   <si>
     <t>Verifica del rispetto del contingente di cui all'articolo 7 della Deliberazione della Giunta Provinciale n. 1054/2017 
 ai fini del riconoscimento del contributo provinciale 2020 per il servizio di microstruttura ai Comuni (articolo 3, comma 3, della Deliberazione della Giunta Provinciale Nr. 666/2019)</t>
@@ -1000,6 +1000,261 @@
   </si>
   <si>
     <t>Kofler</t>
+  </si>
+  <si>
+    <t>Moretta</t>
+  </si>
+  <si>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>xx.09.2016</t>
+  </si>
+  <si>
+    <t>30.09.2018</t>
+  </si>
+  <si>
+    <t>Schmittner</t>
+  </si>
+  <si>
+    <t>Sophie</t>
+  </si>
+  <si>
+    <t>xx.04.2017</t>
+  </si>
+  <si>
+    <t>31.08.2018</t>
+  </si>
+  <si>
+    <t>Marcher</t>
+  </si>
+  <si>
+    <t>Lucrezia</t>
+  </si>
+  <si>
+    <t>01.01.2017</t>
+  </si>
+  <si>
+    <t>31.12.2018</t>
+  </si>
+  <si>
+    <t>Brunner</t>
+  </si>
+  <si>
+    <t>Valentina</t>
+  </si>
+  <si>
+    <t>01.03.2017</t>
+  </si>
+  <si>
+    <t>31.05.2019</t>
+  </si>
+  <si>
+    <t>La Gioia</t>
+  </si>
+  <si>
+    <t>Isabella</t>
+  </si>
+  <si>
+    <t>18.04.2017</t>
+  </si>
+  <si>
+    <t>Naddeo</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>01.10.2017</t>
+  </si>
+  <si>
+    <t>31.08.2019</t>
+  </si>
+  <si>
+    <t>Pilato</t>
+  </si>
+  <si>
+    <t>Nicole</t>
+  </si>
+  <si>
+    <t>02.10.2017</t>
+  </si>
+  <si>
+    <t>27.07.2020</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Collatuzzo</t>
+  </si>
+  <si>
+    <t>Tommaso</t>
+  </si>
+  <si>
+    <t>11.12.2017</t>
+  </si>
+  <si>
+    <t>31.08.2020</t>
+  </si>
+  <si>
+    <t>Targa</t>
+  </si>
+  <si>
+    <t>Matilde</t>
+  </si>
+  <si>
+    <t>05.07.2018</t>
+  </si>
+  <si>
+    <t>Oieni</t>
+  </si>
+  <si>
+    <t>Giada</t>
+  </si>
+  <si>
+    <t>16.08.2018</t>
+  </si>
+  <si>
+    <t>Issam</t>
+  </si>
+  <si>
+    <t>Lamri</t>
+  </si>
+  <si>
+    <t>23.08.2018</t>
+  </si>
+  <si>
+    <t>31.08.2021</t>
+  </si>
+  <si>
+    <t>Scafar</t>
+  </si>
+  <si>
+    <t>Viktoria</t>
+  </si>
+  <si>
+    <t>27.08.2018</t>
+  </si>
+  <si>
+    <t>Innerebner</t>
+  </si>
+  <si>
+    <t>Mia</t>
+  </si>
+  <si>
+    <t>06.09.2018</t>
+  </si>
+  <si>
+    <t>30.09.2020</t>
+  </si>
+  <si>
+    <t>Turani</t>
+  </si>
+  <si>
+    <t>Nina</t>
+  </si>
+  <si>
+    <t>10.09.2018</t>
+  </si>
+  <si>
+    <t>Elias</t>
+  </si>
+  <si>
+    <t>Vrenjo</t>
+  </si>
+  <si>
+    <t>Stelio</t>
+  </si>
+  <si>
+    <t>13.09.2018</t>
+  </si>
+  <si>
+    <t>Cocco</t>
+  </si>
+  <si>
+    <t>Paolo</t>
+  </si>
+  <si>
+    <t>17.09.2018</t>
+  </si>
+  <si>
+    <t>Noman</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>01.10.2018</t>
+  </si>
+  <si>
+    <t>Battan</t>
+  </si>
+  <si>
+    <t>Bryan</t>
+  </si>
+  <si>
+    <t>26.11.2018</t>
+  </si>
+  <si>
+    <t>Ferrarese</t>
+  </si>
+  <si>
+    <t>07.01.2019</t>
+  </si>
+  <si>
+    <t>Er Rqxq</t>
+  </si>
+  <si>
+    <t>Razan</t>
+  </si>
+  <si>
+    <t>03.02.2019</t>
+  </si>
+  <si>
+    <t>08.02.2021</t>
+  </si>
+  <si>
+    <t>Buraglio</t>
+  </si>
+  <si>
+    <t>07.03.2019</t>
+  </si>
+  <si>
+    <t>Bezzi</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>02.04.2019</t>
+  </si>
+  <si>
+    <t>04.04.2019</t>
+  </si>
+  <si>
+    <t>30.09.2019</t>
+  </si>
+  <si>
+    <t>Beqiraj</t>
+  </si>
+  <si>
+    <t>Klara</t>
+  </si>
+  <si>
+    <t>01.05.2019</t>
+  </si>
+  <si>
+    <t>Mayr Duffek</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>27.05.2019</t>
+  </si>
+  <si>
+    <t>02.09.2019</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1177,6 +1432,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1495,7 +1753,7 @@
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
+      <selection activeCell="A8" sqref="A8:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,28 +1855,60 @@
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="A8" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="A9" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="A10" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
@@ -2136,13 +2426,13 @@
           <x14:formula1>
             <xm:f>'LK Kita'!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>C8:C70</xm:sqref>
+          <xm:sqref>C11:C70</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{EAC02A5A-7D2B-4A10-8FCE-2769C27A0B7F}">
           <x14:formula1>
             <xm:f>'LK Comuni'!$A$1:$A$117</xm:f>
           </x14:formula1>
-          <xm:sqref>D8:D70</xm:sqref>
+          <xm:sqref>D11:D70</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2155,7 +2445,7 @@
   <dimension ref="A1:O71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2281,10 +2571,14 @@
       <c r="F8" s="8">
         <v>44353</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="6">
+        <v>748</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="J8" s="6">
+        <v>2500</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -2309,304 +2603,618 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="A10" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="A11" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="G11" s="16">
+        <v>465</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16">
+        <v>2162.25</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="A12" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="A13" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="G13" s="16">
+        <v>3100</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16">
+        <v>10374.06</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="A14" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="A15" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="A16" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="A17" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="G17" s="16">
+        <v>1359</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16">
+        <v>3288.78</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="A18" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="A19" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="G19" s="16">
+        <v>1920</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16">
+        <v>1616.88</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="A20" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="A21" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="G21" s="16">
+        <v>2082</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16">
+        <v>4871.3</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="A22" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="A23" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
+      <c r="A24" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="G24" s="16">
+        <v>1920</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16">
+        <v>7008</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
+      <c r="A25" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
+      <c r="A26" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
+      <c r="A27" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="G27" s="16">
+        <v>1475</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16">
+        <v>5383.75</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
+      <c r="A28" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
+      <c r="A29" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="G29" s="16">
+        <v>1195</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16">
+        <v>4361.55</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+      <c r="A30" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
+      <c r="A31" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="G31" s="16">
+        <v>508</v>
+      </c>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16">
+        <v>1854.2</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
+      <c r="A32" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
+      <c r="A33" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="G33" s="16">
+        <v>562</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16">
+        <v>2051.3000000000002</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
+      <c r="A34" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
@@ -3043,7 +3651,7 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G71" s="3">
         <f>SUM(G8:G70)</f>
-        <v>0</v>
+        <v>15334</v>
       </c>
       <c r="H71" s="3">
         <f t="shared" ref="H71:J71" si="0">SUM(H8:H70)</f>
@@ -3055,7 +3663,7 @@
       </c>
       <c r="J71" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45472.070000000007</v>
       </c>
     </row>
   </sheetData>
@@ -3095,13 +3703,13 @@
           <x14:formula1>
             <xm:f>'LK Kita'!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>C8:C70</xm:sqref>
+          <xm:sqref>C8:C9 C35:C70</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{B319B154-FB31-4202-B476-180AE7BF6186}">
           <x14:formula1>
             <xm:f>'LK Comuni'!$A$1:$A$117</xm:f>
           </x14:formula1>
-          <xm:sqref>D8:D70</xm:sqref>
+          <xm:sqref>D8:D9 D35:D70</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4576,13 +5184,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05B7C531-C752-467D-A6AA-61A09CDA7437}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{400B987F-F926-4E93-8C44-D376C23B8903}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05BA37A0-E14E-4D58-A939-592F07560F7D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E76B7C9-6BB8-4DC8-8C3E-ACF0A770F2B8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D539108-390B-4422-B727-05C35936DC1F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB4C3A0B-250A-4B85-B78E-C126E95CCBA4}"/>
 </file>